--- a/biology/Botanique/Chicha_morada/Chicha_morada.xlsx
+++ b/biology/Botanique/Chicha_morada/Chicha_morada.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La chicha morada est une boisson non alcoolisée fabriquée à base de maïs violet, l'une  des diverses variétés de maïs péruviens.
@@ -513,7 +525,9 @@
           <t>Recette</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour la préparer, on recouvre largement d'eau 3 ou 4 épis de maïs violet et on fait bouillir pendant 1 à 2 heures avec de la cannelle et des clous de girofle pour que les grains ramollissent. Dans certaines recettes, on propose d'ajouter également des pelures d'ananas, des pommes coupées en morceaux ou parfois aussi des coings. Après la décoction, on recueille le liquide (devenu violet foncé) à l'aide d'une passoire ; les grains sont donnés aux animaux s'il y en a (ou parfois réutilisés pour une seconde préparation qui sera moins concentrée).
 On laisse refroidir et on ajoute du sucre de canne, plus ou moins selon les goûts et un filet de jus de citron qui intensifie la couleur pourpre et permet une protonation de l'anthocyanine.
